--- a/data/trans_orig/P16B07-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16B07-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2221F9DE-FC8C-4362-AC10-34B15A097D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F690351C-9C98-4BB2-87F7-B5D6AA671392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7EB3F522-6B01-4640-A060-480A3AD7495C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8BDE0AE6-0B45-4A5B-BDA2-8C1F95611969}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="165">
   <si>
     <t>Porcentaje de antidepresivos recetados en 2007 (Tasa respuesta: 4,25%)</t>
   </si>
@@ -85,13 +85,13 @@
     <t>84,36%</t>
   </si>
   <si>
-    <t>39,13%</t>
+    <t>38,75%</t>
   </si>
   <si>
     <t>86,58%</t>
   </si>
   <si>
-    <t>40,26%</t>
+    <t>41,12%</t>
   </si>
   <si>
     <t>No</t>
@@ -109,13 +109,13 @@
     <t>15,64%</t>
   </si>
   <si>
-    <t>60,87%</t>
+    <t>61,25%</t>
   </si>
   <si>
     <t>13,42%</t>
   </si>
   <si>
-    <t>59,74%</t>
+    <t>58,88%</t>
   </si>
   <si>
     <t>2/10</t>
@@ -124,49 +124,49 @@
     <t>94,73%</t>
   </si>
   <si>
-    <t>68,98%</t>
+    <t>73,87%</t>
   </si>
   <si>
     <t>90,59%</t>
   </si>
   <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
   </si>
   <si>
     <t>92,08%</t>
   </si>
   <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
   </si>
   <si>
     <t>5,27%</t>
   </si>
   <si>
-    <t>31,02%</t>
+    <t>26,13%</t>
   </si>
   <si>
     <t>9,41%</t>
   </si>
   <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
   </si>
   <si>
     <t>7,92%</t>
   </si>
   <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -178,13 +178,13 @@
     <t>97,9%</t>
   </si>
   <si>
-    <t>88,83%</t>
+    <t>90,89%</t>
   </si>
   <si>
     <t>98,45%</t>
   </si>
   <si>
-    <t>90,67%</t>
+    <t>91,38%</t>
   </si>
   <si>
     <t>8,64%</t>
@@ -193,13 +193,13 @@
     <t>2,1%</t>
   </si>
   <si>
-    <t>11,17%</t>
+    <t>9,11%</t>
   </si>
   <si>
     <t>1,55%</t>
   </si>
   <si>
-    <t>9,33%</t>
+    <t>8,62%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -229,7 +229,7 @@
     <t>94,98%</t>
   </si>
   <si>
-    <t>69,77%</t>
+    <t>78,32%</t>
   </si>
   <si>
     <t>97,26%</t>
@@ -238,13 +238,10 @@
     <t>99,05%</t>
   </si>
   <si>
-    <t>94,77%</t>
-  </si>
-  <si>
     <t>5,02%</t>
   </si>
   <si>
-    <t>30,23%</t>
+    <t>21,68%</t>
   </si>
   <si>
     <t>2,74%</t>
@@ -253,43 +250,52 @@
     <t>0,95%</t>
   </si>
   <si>
-    <t>5,23%</t>
-  </si>
-  <si>
     <t>97,27%</t>
   </si>
   <si>
-    <t>91,12%</t>
+    <t>90,65%</t>
   </si>
   <si>
     <t>97,41%</t>
   </si>
   <si>
-    <t>94,17%</t>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
   </si>
   <si>
     <t>97,38%</t>
   </si>
   <si>
-    <t>98,92%</t>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
   </si>
   <si>
     <t>2,73%</t>
   </si>
   <si>
-    <t>8,88%</t>
+    <t>9,35%</t>
   </si>
   <si>
     <t>2,59%</t>
   </si>
   <si>
-    <t>5,83%</t>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
   </si>
   <si>
     <t>2,62%</t>
   </si>
   <si>
-    <t>1,08%</t>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -340,13 +346,13 @@
     <t>98,7%</t>
   </si>
   <si>
-    <t>93,44%</t>
+    <t>93,48%</t>
   </si>
   <si>
     <t>99,08%</t>
   </si>
   <si>
-    <t>95,04%</t>
+    <t>95,42%</t>
   </si>
   <si>
     <t>5,78%</t>
@@ -355,13 +361,13 @@
     <t>1,3%</t>
   </si>
   <si>
-    <t>6,56%</t>
+    <t>6,52%</t>
   </si>
   <si>
     <t>0,92%</t>
   </si>
   <si>
-    <t>4,96%</t>
+    <t>4,58%</t>
   </si>
   <si>
     <t>85,49%</t>
@@ -370,13 +376,13 @@
     <t>97,89%</t>
   </si>
   <si>
-    <t>91,46%</t>
+    <t>91,41%</t>
   </si>
   <si>
     <t>98,36%</t>
   </si>
   <si>
-    <t>91,82%</t>
+    <t>92,48%</t>
   </si>
   <si>
     <t>14,51%</t>
@@ -385,13 +391,13 @@
     <t>2,11%</t>
   </si>
   <si>
-    <t>8,54%</t>
+    <t>8,59%</t>
   </si>
   <si>
     <t>1,64%</t>
   </si>
   <si>
-    <t>8,18%</t>
+    <t>7,52%</t>
   </si>
   <si>
     <t>94,04%</t>
@@ -412,13 +418,10 @@
     <t>99,24%</t>
   </si>
   <si>
-    <t>97,02%</t>
-  </si>
-  <si>
     <t>99,44%</t>
   </si>
   <si>
-    <t>98,23%</t>
+    <t>98,28%</t>
   </si>
   <si>
     <t>2,04%</t>
@@ -427,13 +430,10 @@
     <t>0,76%</t>
   </si>
   <si>
-    <t>2,98%</t>
-  </si>
-  <si>
     <t>0,56%</t>
   </si>
   <si>
-    <t>1,77%</t>
+    <t>1,72%</t>
   </si>
   <si>
     <t>Porcentaje de antidepresivos recetados en 2015 (Tasa respuesta: 4,51%)</t>
@@ -466,43 +466,31 @@
     <t>89,47%</t>
   </si>
   <si>
-    <t>97,18%</t>
-  </si>
-  <si>
     <t>97,75%</t>
   </si>
   <si>
     <t>10,53%</t>
   </si>
   <si>
-    <t>2,82%</t>
-  </si>
-  <si>
     <t>2,25%</t>
   </si>
   <si>
     <t>95,39%</t>
   </si>
   <si>
-    <t>85,51%</t>
-  </si>
-  <si>
     <t>96,65%</t>
   </si>
   <si>
-    <t>89,08%</t>
+    <t>89,81%</t>
   </si>
   <si>
     <t>4,61%</t>
   </si>
   <si>
-    <t>14,49%</t>
-  </si>
-  <si>
     <t>3,35%</t>
   </si>
   <si>
-    <t>10,92%</t>
+    <t>10,19%</t>
   </si>
   <si>
     <t>93,64%</t>
@@ -526,19 +514,25 @@
     <t>99,23%</t>
   </si>
   <si>
-    <t>97,5%</t>
+    <t>97,29%</t>
   </si>
   <si>
     <t>99,41%</t>
   </si>
   <si>
+    <t>97,91%</t>
+  </si>
+  <si>
     <t>0,77%</t>
   </si>
   <si>
-    <t>2,5%</t>
+    <t>2,71%</t>
   </si>
   <si>
     <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
   </si>
 </sst>
 </file>
@@ -950,7 +944,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD9EA2FC-2048-4645-9A45-DE9FD88915D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A929B72-AC9A-445D-A8B2-7CC3A5B0664C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1727,7 +1721,7 @@
         <v>65</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>11</v>
@@ -1745,13 +1739,13 @@
         <v>844</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -1766,7 +1760,7 @@
         <v>20</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -1775,13 +1769,13 @@
         <v>844</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1849,10 +1843,10 @@
         <v>66425</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>11</v>
@@ -1864,13 +1858,13 @@
         <v>209596</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M19" s="7">
         <v>270</v>
@@ -1879,10 +1873,10 @@
         <v>276022</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>77</v>
@@ -1918,10 +1912,10 @@
         <v>80</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M20" s="7">
         <v>7</v>
@@ -1930,13 +1924,13 @@
         <v>7435</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1992,7 +1986,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2013,7 +2007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A91A8E8-74FE-4F7F-B9A7-8A2D4D6CF9A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E0D7A8B-E51F-4B39-83C0-355D1506AEAF}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2030,7 +2024,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2140,7 +2134,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -2155,7 +2149,7 @@
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -2170,7 +2164,7 @@
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -2194,7 +2188,7 @@
         <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2209,7 +2203,7 @@
         <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -2224,7 +2218,7 @@
         <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2295,7 +2289,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -2310,7 +2304,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -2325,7 +2319,7 @@
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -2349,7 +2343,7 @@
         <v>20</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2364,7 +2358,7 @@
         <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2379,7 +2373,7 @@
         <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2450,7 +2444,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -2462,10 +2456,10 @@
         <v>82249</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>11</v>
@@ -2477,10 +2471,10 @@
         <v>117466</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>11</v>
@@ -2504,7 +2498,7 @@
         <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -2513,13 +2507,13 @@
         <v>1087</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -2528,13 +2522,13 @@
         <v>1087</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2605,7 +2599,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -2617,10 +2611,10 @@
         <v>54485</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>11</v>
@@ -2632,10 +2626,10 @@
         <v>70703</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>11</v>
@@ -2659,7 +2653,7 @@
         <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -2668,13 +2662,13 @@
         <v>1176</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -2683,13 +2677,13 @@
         <v>1176</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2760,7 +2754,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -2775,7 +2769,7 @@
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -2790,7 +2784,7 @@
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -2814,7 +2808,7 @@
         <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -2829,7 +2823,7 @@
         <v>20</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -2844,7 +2838,7 @@
         <v>20</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2915,7 +2909,7 @@
         <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>13</v>
@@ -2927,10 +2921,10 @@
         <v>294341</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>11</v>
@@ -2942,10 +2936,10 @@
         <v>399295</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>11</v>
@@ -2969,7 +2963,7 @@
         <v>20</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -2978,13 +2972,13 @@
         <v>2264</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -3055,7 +3049,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -3076,7 +3070,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29581A7B-5A07-423B-BB3C-65FD5C870B53}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{671CDC3C-9145-4678-BE02-582D1454CD89}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3233,7 +3227,7 @@
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -3287,7 +3281,7 @@
         <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3528,7 +3522,7 @@
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>142</v>
+        <v>31</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -3543,7 +3537,7 @@
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -3567,7 +3561,7 @@
         <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -3582,7 +3576,7 @@
         <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>145</v>
+        <v>38</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -3597,7 +3591,7 @@
         <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3668,7 +3662,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -3680,10 +3674,10 @@
         <v>39512</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>148</v>
+        <v>110</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>11</v>
@@ -3695,10 +3689,10 @@
         <v>55113</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>11</v>
@@ -3722,7 +3716,7 @@
         <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -3731,13 +3725,13 @@
         <v>1909</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>152</v>
+        <v>115</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -3746,13 +3740,13 @@
         <v>1909</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3823,7 +3817,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -3838,7 +3832,7 @@
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -3853,7 +3847,7 @@
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -3877,7 +3871,7 @@
         <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3892,7 +3886,7 @@
         <v>20</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3907,7 +3901,7 @@
         <v>20</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3978,7 +3972,7 @@
         <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>13</v>
@@ -3990,10 +3984,10 @@
         <v>246125</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>11</v>
@@ -4005,10 +3999,10 @@
         <v>319164</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>45</v>
+        <v>160</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>11</v>
@@ -4032,7 +4026,7 @@
         <v>20</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -4041,13 +4035,13 @@
         <v>1909</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -4056,13 +4050,13 @@
         <v>1909</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>50</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4118,7 +4112,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16B07-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16B07-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F690351C-9C98-4BB2-87F7-B5D6AA671392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A39646D-258F-4627-9F64-281DF5AA3358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8BDE0AE6-0B45-4A5B-BDA2-8C1F95611969}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5E566F2B-822E-4657-8124-A8742D897E1E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="169">
   <si>
     <t>Porcentaje de antidepresivos recetados en 2007 (Tasa respuesta: 4,25%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -85,13 +85,13 @@
     <t>84,36%</t>
   </si>
   <si>
-    <t>38,75%</t>
+    <t>37,89%</t>
   </si>
   <si>
     <t>86,58%</t>
   </si>
   <si>
-    <t>41,12%</t>
+    <t>39,27%</t>
   </si>
   <si>
     <t>No</t>
@@ -109,430 +109,442 @@
     <t>15,64%</t>
   </si>
   <si>
-    <t>61,25%</t>
+    <t>62,11%</t>
   </si>
   <si>
     <t>13,42%</t>
   </si>
   <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>2/10</t>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>94,73%</t>
   </si>
   <si>
-    <t>73,87%</t>
+    <t>71,29%</t>
   </si>
   <si>
     <t>90,59%</t>
   </si>
   <si>
-    <t>77,32%</t>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Porcentaje de antidepresivos recetados en 2012 (Tasa respuesta: 5,75%)</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>Porcentaje de antidepresivos recetados en 2016 (Tasa respuesta: 4,51%)</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
   </si>
   <si>
     <t>97,18%</t>
   </si>
   <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
   </si>
   <si>
     <t>2,82%</t>
   </si>
   <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Porcentaje de antidepresivos recetados en 2012 (Tasa respuesta: 5,75%)</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>Porcentaje de antidepresivos recetados en 2015 (Tasa respuesta: 4,51%)</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
     <t>2,25%</t>
   </si>
   <si>
     <t>95,39%</t>
   </si>
   <si>
+    <t>85,54%</t>
+  </si>
+  <si>
     <t>96,65%</t>
   </si>
   <si>
-    <t>89,81%</t>
+    <t>87,56%</t>
   </si>
   <si>
     <t>4,61%</t>
   </si>
   <si>
+    <t>14,46%</t>
+  </si>
+  <si>
     <t>3,35%</t>
   </si>
   <si>
-    <t>10,19%</t>
+    <t>12,44%</t>
   </si>
   <si>
     <t>93,64%</t>
   </si>
   <si>
-    <t>97,14%</t>
-  </si>
-  <si>
     <t>98,0%</t>
   </si>
   <si>
     <t>6,36%</t>
   </si>
   <si>
-    <t>2,86%</t>
-  </si>
-  <si>
     <t>2,0%</t>
   </si>
   <si>
     <t>99,23%</t>
   </si>
   <si>
-    <t>97,29%</t>
+    <t>97,28%</t>
   </si>
   <si>
     <t>99,41%</t>
   </si>
   <si>
-    <t>97,91%</t>
+    <t>98,07%</t>
   </si>
   <si>
     <t>0,77%</t>
   </si>
   <si>
-    <t>2,71%</t>
+    <t>2,72%</t>
   </si>
   <si>
     <t>0,59%</t>
   </si>
   <si>
-    <t>2,09%</t>
+    <t>1,93%</t>
   </si>
 </sst>
 </file>
@@ -944,7 +956,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A929B72-AC9A-445D-A8B2-7CC3A5B0664C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A3ACB81-97B4-4F2D-9ED5-0DF90DBD571C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1721,7 +1733,7 @@
         <v>65</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>11</v>
@@ -1739,13 +1751,13 @@
         <v>844</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -1760,7 +1772,7 @@
         <v>20</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -1769,13 +1781,13 @@
         <v>844</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1843,10 +1855,10 @@
         <v>66425</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>11</v>
@@ -1858,13 +1870,13 @@
         <v>209596</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M19" s="7">
         <v>270</v>
@@ -1873,13 +1885,13 @@
         <v>276022</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1894,13 +1906,13 @@
         <v>1863</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -1909,13 +1921,13 @@
         <v>5572</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M20" s="7">
         <v>7</v>
@@ -1924,13 +1936,13 @@
         <v>7435</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1986,7 +1998,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2007,7 +2019,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E0D7A8B-E51F-4B39-83C0-355D1506AEAF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCFE1032-4F36-4DD9-B8D5-A5D0419923EE}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2024,7 +2036,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2134,7 +2146,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -2149,7 +2161,7 @@
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -2164,7 +2176,7 @@
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -2188,7 +2200,7 @@
         <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2203,7 +2215,7 @@
         <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -2218,7 +2230,7 @@
         <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2289,7 +2301,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -2304,7 +2316,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -2319,7 +2331,7 @@
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -2343,7 +2355,7 @@
         <v>20</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2358,7 +2370,7 @@
         <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2373,7 +2385,7 @@
         <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2444,7 +2456,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -2456,10 +2468,10 @@
         <v>82249</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>11</v>
@@ -2471,10 +2483,10 @@
         <v>117466</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>11</v>
@@ -2498,7 +2510,7 @@
         <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -2507,13 +2519,13 @@
         <v>1087</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -2522,13 +2534,13 @@
         <v>1087</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2599,7 +2611,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -2611,10 +2623,10 @@
         <v>54485</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>11</v>
@@ -2626,10 +2638,10 @@
         <v>70703</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>11</v>
@@ -2653,7 +2665,7 @@
         <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -2662,13 +2674,13 @@
         <v>1176</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -2677,13 +2689,13 @@
         <v>1176</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2754,7 +2766,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -2769,7 +2781,7 @@
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>121</v>
+        <v>34</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -2784,7 +2796,7 @@
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -2808,7 +2820,7 @@
         <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -2823,7 +2835,7 @@
         <v>20</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -2838,7 +2850,7 @@
         <v>20</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2924,7 +2936,7 @@
         <v>125</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>11</v>
@@ -2936,10 +2948,10 @@
         <v>399295</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>11</v>
@@ -2963,7 +2975,7 @@
         <v>20</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -2972,13 +2984,13 @@
         <v>2264</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -2987,13 +2999,13 @@
         <v>2264</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3049,7 +3061,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -3070,7 +3082,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{671CDC3C-9145-4678-BE02-582D1454CD89}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7208F9F5-361F-4BCC-8E38-ABA32365323B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3087,7 +3099,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3197,7 +3209,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -3212,7 +3224,7 @@
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -3227,7 +3239,7 @@
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -3251,7 +3263,7 @@
         <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3266,7 +3278,7 @@
         <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3281,7 +3293,7 @@
         <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3367,7 +3379,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -3382,7 +3394,7 @@
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -3421,7 +3433,7 @@
         <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3436,7 +3448,7 @@
         <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3507,7 +3519,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -3522,7 +3534,7 @@
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>31</v>
+        <v>144</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -3537,7 +3549,7 @@
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -3561,7 +3573,7 @@
         <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -3576,7 +3588,7 @@
         <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -3591,7 +3603,7 @@
         <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3662,7 +3674,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -3674,10 +3686,10 @@
         <v>39512</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>11</v>
@@ -3689,10 +3701,10 @@
         <v>55113</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>11</v>
@@ -3716,7 +3728,7 @@
         <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -3725,13 +3737,13 @@
         <v>1909</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -3740,13 +3752,13 @@
         <v>1909</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3817,7 +3829,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -3832,7 +3844,7 @@
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>152</v>
+        <v>31</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -3847,7 +3859,7 @@
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -3871,7 +3883,7 @@
         <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3886,7 +3898,7 @@
         <v>20</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>155</v>
+        <v>38</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3901,7 +3913,7 @@
         <v>20</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3972,7 +3984,7 @@
         <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>13</v>
@@ -3984,10 +3996,10 @@
         <v>246125</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>11</v>
@@ -3999,10 +4011,10 @@
         <v>319164</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>11</v>
@@ -4026,7 +4038,7 @@
         <v>20</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -4035,13 +4047,13 @@
         <v>1909</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -4050,13 +4062,13 @@
         <v>1909</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4112,7 +4124,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16B07-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16B07-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A39646D-258F-4627-9F64-281DF5AA3358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9DD3A4A-74BD-44E7-B623-7261B1BC15A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5E566F2B-822E-4657-8124-A8742D897E1E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0AC95EE1-BB9F-473A-9294-C6AA0B541310}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="167">
   <si>
     <t>Porcentaje de antidepresivos recetados en 2007 (Tasa respuesta: 4,25%)</t>
   </si>
@@ -70,7 +70,7 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -85,13 +85,13 @@
     <t>84,36%</t>
   </si>
   <si>
-    <t>37,89%</t>
+    <t>39,13%</t>
   </si>
   <si>
     <t>86,58%</t>
   </si>
   <si>
-    <t>39,27%</t>
+    <t>40,26%</t>
   </si>
   <si>
     <t>No</t>
@@ -109,13 +109,13 @@
     <t>15,64%</t>
   </si>
   <si>
-    <t>62,11%</t>
+    <t>60,87%</t>
   </si>
   <si>
     <t>13,42%</t>
   </si>
   <si>
-    <t>60,73%</t>
+    <t>59,74%</t>
   </si>
   <si>
     <t>2-10.000 hab</t>
@@ -124,427 +124,421 @@
     <t>94,73%</t>
   </si>
   <si>
-    <t>71,29%</t>
+    <t>68,98%</t>
   </si>
   <si>
     <t>90,59%</t>
   </si>
   <si>
-    <t>76,71%</t>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Porcentaje de antidepresivos recetados en 2012 (Tasa respuesta: 5,75%)</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>Porcentaje de antidepresivos recetados en 2016 (Tasa respuesta: 4,51%)</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
   </si>
   <si>
     <t>97,14%</t>
   </si>
   <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
   </si>
   <si>
     <t>2,86%</t>
   </si>
   <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Porcentaje de antidepresivos recetados en 2012 (Tasa respuesta: 5,75%)</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>Porcentaje de antidepresivos recetados en 2016 (Tasa respuesta: 4,51%)</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
     <t>2,0%</t>
   </si>
   <si>
     <t>99,23%</t>
   </si>
   <si>
-    <t>97,28%</t>
+    <t>97,5%</t>
   </si>
   <si>
     <t>99,41%</t>
   </si>
   <si>
-    <t>98,07%</t>
-  </si>
-  <si>
     <t>0,77%</t>
   </si>
   <si>
-    <t>2,72%</t>
+    <t>2,5%</t>
   </si>
   <si>
     <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
   </si>
 </sst>
 </file>
@@ -956,7 +950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A3ACB81-97B4-4F2D-9ED5-0DF90DBD571C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3114308-A438-4A64-86D1-D81AA55935BF}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1876,7 +1870,7 @@
         <v>75</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="M19" s="7">
         <v>270</v>
@@ -1885,13 +1879,13 @@
         <v>276022</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1906,13 +1900,13 @@
         <v>1863</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -1921,13 +1915,13 @@
         <v>5572</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="M20" s="7">
         <v>7</v>
@@ -1936,13 +1930,13 @@
         <v>7435</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1998,7 +1992,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2019,7 +2013,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCFE1032-4F36-4DD9-B8D5-A5D0419923EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21C5921D-9C45-4345-9395-2825258DDB99}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2036,7 +2030,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2146,7 +2140,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -2161,7 +2155,7 @@
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -2176,7 +2170,7 @@
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -2200,7 +2194,7 @@
         <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2215,7 +2209,7 @@
         <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -2230,7 +2224,7 @@
         <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2301,7 +2295,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -2316,7 +2310,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -2331,7 +2325,7 @@
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -2355,7 +2349,7 @@
         <v>20</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2370,7 +2364,7 @@
         <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2385,7 +2379,7 @@
         <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2456,7 +2450,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -2468,10 +2462,10 @@
         <v>82249</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>11</v>
@@ -2483,10 +2477,10 @@
         <v>117466</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>11</v>
@@ -2510,7 +2504,7 @@
         <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -2519,13 +2513,13 @@
         <v>1087</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -2534,13 +2528,13 @@
         <v>1087</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2611,7 +2605,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -2623,10 +2617,10 @@
         <v>54485</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>11</v>
@@ -2638,10 +2632,10 @@
         <v>70703</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>11</v>
@@ -2665,7 +2659,7 @@
         <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -2674,13 +2668,13 @@
         <v>1176</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -2689,13 +2683,13 @@
         <v>1176</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2766,7 +2760,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -2781,7 +2775,7 @@
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -2796,7 +2790,7 @@
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -2820,7 +2814,7 @@
         <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -2835,7 +2829,7 @@
         <v>20</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -2850,7 +2844,7 @@
         <v>20</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2921,7 +2915,7 @@
         <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>13</v>
@@ -2933,10 +2927,10 @@
         <v>294341</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>11</v>
@@ -2948,10 +2942,10 @@
         <v>399295</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>11</v>
@@ -2975,7 +2969,7 @@
         <v>20</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -2984,13 +2978,13 @@
         <v>2264</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -2999,13 +2993,13 @@
         <v>2264</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3061,7 +3055,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -3082,7 +3076,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7208F9F5-361F-4BCC-8E38-ABA32365323B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71AC37A9-DB60-4A99-BD50-11445CA31BB5}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3099,7 +3093,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3209,7 +3203,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -3224,7 +3218,7 @@
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -3239,7 +3233,7 @@
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -3263,7 +3257,7 @@
         <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3278,7 +3272,7 @@
         <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3293,7 +3287,7 @@
         <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3379,7 +3373,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -3394,7 +3388,7 @@
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -3433,7 +3427,7 @@
         <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3448,7 +3442,7 @@
         <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3519,7 +3513,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -3534,7 +3528,7 @@
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -3549,7 +3543,7 @@
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -3573,7 +3567,7 @@
         <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -3588,7 +3582,7 @@
         <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -3603,7 +3597,7 @@
         <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3674,7 +3668,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -3686,10 +3680,10 @@
         <v>39512</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>11</v>
@@ -3701,10 +3695,10 @@
         <v>55113</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>11</v>
@@ -3728,7 +3722,7 @@
         <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -3737,13 +3731,13 @@
         <v>1909</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -3752,13 +3746,13 @@
         <v>1909</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3829,7 +3823,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -3844,7 +3838,7 @@
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>31</v>
+        <v>156</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -3859,7 +3853,7 @@
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -3883,7 +3877,7 @@
         <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3898,7 +3892,7 @@
         <v>20</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>38</v>
+        <v>159</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3984,7 +3978,7 @@
         <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>13</v>
@@ -4014,7 +4008,7 @@
         <v>163</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>164</v>
+        <v>45</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>11</v>
@@ -4038,7 +4032,7 @@
         <v>20</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -4047,13 +4041,13 @@
         <v>1909</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -4062,13 +4056,13 @@
         <v>1909</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>168</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4124,7 +4118,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16B07-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16B07-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9DD3A4A-74BD-44E7-B623-7261B1BC15A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D28D5154-6CC1-4482-8605-4B43482B6C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0AC95EE1-BB9F-473A-9294-C6AA0B541310}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A3765838-F698-4575-8A0F-E3F2E40322FF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="148">
   <si>
     <t>Porcentaje de antidepresivos recetados en 2007 (Tasa respuesta: 4,25%)</t>
   </si>
@@ -67,432 +67,381 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>22,85%</t>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>0,0%</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
   </si>
   <si>
     <t>0%</t>
   </si>
   <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>59,74%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
   </si>
   <si>
     <t>94,73%</t>
   </si>
   <si>
-    <t>68,98%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
   </si>
   <si>
     <t>5,27%</t>
   </si>
   <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
     <t>Porcentaje de antidepresivos recetados en 2012 (Tasa respuesta: 5,75%)</t>
   </si>
   <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>Porcentaje de antidepresivos recetados en 2016 (Tasa respuesta: 4,51%)</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
   </si>
   <si>
     <t>88,17%</t>
   </si>
   <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
   </si>
   <si>
     <t>11,83%</t>
   </si>
   <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>Porcentaje de antidepresivos recetados en 2016 (Tasa respuesta: 4,51%)</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
     <t>4,61%</t>
   </si>
   <si>
@@ -508,16 +457,10 @@
     <t>93,64%</t>
   </si>
   <si>
-    <t>97,14%</t>
-  </si>
-  <si>
     <t>98,0%</t>
   </si>
   <si>
     <t>6,36%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
   </si>
   <si>
     <t>2,0%</t>
@@ -950,8 +893,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3114308-A438-4A64-86D1-D81AA55935BF}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2886FC-4537-4E77-A1E8-6394F4AA4991}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1068,10 +1011,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D4" s="7">
-        <v>1054</v>
+        <v>19360</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1083,10 +1026,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="I4" s="7">
-        <v>5397</v>
+        <v>36719</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1095,73 +1038,73 @@
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="N4" s="7">
-        <v>6450</v>
+        <v>56078</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>1018</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I5" s="7">
-        <v>1000</v>
+        <v>4252</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N5" s="7">
-        <v>1000</v>
+        <v>5271</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1170,150 +1113,150 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D6" s="7">
-        <v>1054</v>
+        <v>20378</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="I6" s="7">
-        <v>6397</v>
+        <v>40971</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="N6" s="7">
-        <v>7450</v>
+        <v>61349</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7" s="7">
-        <v>18306</v>
+        <v>22334</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H7" s="7">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="I7" s="7">
-        <v>31322</v>
+        <v>61622</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="N7" s="7">
-        <v>49628</v>
+        <v>83956</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="7">
         <v>1</v>
       </c>
-      <c r="D8" s="7">
-        <v>1018</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="7">
-        <v>3</v>
-      </c>
       <c r="I8" s="7">
-        <v>3252</v>
+        <v>1320</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M8" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>4270</v>
+        <v>1320</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>42</v>
@@ -1325,49 +1268,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="7">
-        <v>19324</v>
+        <v>22334</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="I9" s="7">
-        <v>34574</v>
+        <v>62942</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="N9" s="7">
-        <v>53898</v>
+        <v>85276</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1378,55 +1321,55 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D10" s="7">
-        <v>22334</v>
+        <v>8741</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>44</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H10" s="7">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="I10" s="7">
-        <v>61622</v>
+        <v>39298</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="7">
+        <v>49</v>
+      </c>
+      <c r="N10" s="7">
+        <v>48039</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M10" s="7">
-        <v>77</v>
-      </c>
-      <c r="N10" s="7">
-        <v>83956</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -1435,43 +1378,43 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1320</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="M11" s="7">
-        <v>1</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1320</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1480,99 +1423,99 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D12" s="7">
-        <v>22334</v>
+        <v>8741</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="I12" s="7">
-        <v>62942</v>
+        <v>39298</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="N12" s="7">
-        <v>85276</v>
+        <v>48039</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D13" s="7">
-        <v>8741</v>
+        <v>15991</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="7">
+        <v>69</v>
+      </c>
+      <c r="I13" s="7">
+        <v>71958</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13" s="7">
+        <v>86</v>
+      </c>
+      <c r="N13" s="7">
+        <v>87949</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="7">
-        <v>40</v>
-      </c>
-      <c r="I13" s="7">
-        <v>39298</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M13" s="7">
-        <v>49</v>
-      </c>
-      <c r="N13" s="7">
-        <v>48039</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -1581,49 +1524,49 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>844</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>1</v>
+      </c>
+      <c r="N14" s="7">
+        <v>844</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="P14" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>60</v>
@@ -1635,93 +1578,93 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D15" s="7">
-        <v>8741</v>
+        <v>16835</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="I15" s="7">
-        <v>39298</v>
+        <v>71958</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="N15" s="7">
-        <v>48039</v>
+        <v>88793</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="D16" s="7">
-        <v>15991</v>
+        <v>66425</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="7">
+        <v>203</v>
+      </c>
+      <c r="I16" s="7">
+        <v>209596</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="7">
-        <v>69</v>
-      </c>
-      <c r="I16" s="7">
-        <v>71958</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>64</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M16" s="7">
-        <v>86</v>
+        <v>270</v>
       </c>
       <c r="N16" s="7">
-        <v>87949</v>
+        <v>276022</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>65</v>
@@ -1730,58 +1673,58 @@
         <v>66</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>844</v>
+        <v>1863</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>5572</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M17" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N17" s="7">
-        <v>844</v>
+        <v>7435</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1790,217 +1733,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="D18" s="7">
-        <v>16835</v>
+        <v>68288</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>69</v>
+        <v>208</v>
       </c>
       <c r="I18" s="7">
-        <v>71958</v>
+        <v>215168</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>87</v>
+        <v>277</v>
       </c>
       <c r="N18" s="7">
-        <v>88793</v>
+        <v>283457</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>67</v>
-      </c>
-      <c r="D19" s="7">
-        <v>66425</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="7">
-        <v>203</v>
-      </c>
-      <c r="I19" s="7">
-        <v>209596</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="K19" s="7" t="s">
+      <c r="A19" t="s">
         <v>75</v>
       </c>
-      <c r="L19" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M19" s="7">
-        <v>270</v>
-      </c>
-      <c r="N19" s="7">
-        <v>276022</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1863</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H20" s="7">
-        <v>5</v>
-      </c>
-      <c r="I20" s="7">
-        <v>5572</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="M20" s="7">
-        <v>7</v>
-      </c>
-      <c r="N20" s="7">
-        <v>7435</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>69</v>
-      </c>
-      <c r="D21" s="7">
-        <v>68288</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="7">
-        <v>208</v>
-      </c>
-      <c r="I21" s="7">
-        <v>215168</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M21" s="7">
-        <v>277</v>
-      </c>
-      <c r="N21" s="7">
-        <v>283457</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>84</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2013,8 +1800,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21C5921D-9C45-4345-9395-2825258DDB99}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78FCDCCC-1ABC-4B5F-A725-2E9A9CABBFA2}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2030,7 +1817,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2131,55 +1918,55 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D4" s="7">
-        <v>2567</v>
+        <v>17921</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H4" s="7">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="I4" s="7">
-        <v>7494</v>
+        <v>68032</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M4" s="7">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="N4" s="7">
-        <v>10061</v>
+        <v>85954</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -2188,13 +1975,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2203,13 +1990,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -2218,13 +2005,13 @@
         <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2233,99 +2020,99 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D6" s="7">
-        <v>2567</v>
+        <v>17921</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="I6" s="7">
-        <v>7494</v>
+        <v>68032</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="N6" s="7">
-        <v>10061</v>
+        <v>85954</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D7" s="7">
-        <v>15354</v>
+        <v>35217</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H7" s="7">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="I7" s="7">
-        <v>60538</v>
+        <v>82249</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="N7" s="7">
-        <v>75892</v>
+        <v>117466</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -2334,7 +2121,7 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -2343,43 +2130,43 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>1087</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>1087</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2388,49 +2175,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D9" s="7">
-        <v>15354</v>
+        <v>35217</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="I9" s="7">
-        <v>60538</v>
+        <v>83336</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="N9" s="7">
-        <v>75892</v>
+        <v>118553</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2441,55 +2228,55 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D10" s="7">
-        <v>35217</v>
+        <v>16217</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H10" s="7">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="I10" s="7">
-        <v>82249</v>
+        <v>54485</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="N10" s="7">
-        <v>117466</v>
+        <v>70703</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -2498,43 +2285,43 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>1087</v>
+        <v>1176</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>1087</v>
+        <v>1176</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2543,108 +2330,108 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D12" s="7">
-        <v>35217</v>
+        <v>16217</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="I12" s="7">
-        <v>83336</v>
+        <v>55661</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="N12" s="7">
-        <v>118553</v>
+        <v>71879</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D13" s="7">
-        <v>16217</v>
+        <v>35598</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H13" s="7">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="I13" s="7">
-        <v>54485</v>
+        <v>89575</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="M13" s="7">
-        <v>64</v>
+        <v>116</v>
       </c>
       <c r="N13" s="7">
-        <v>70703</v>
+        <v>125174</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -2653,43 +2440,43 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>1176</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>114</v>
+        <v>22</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="M14" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>1176</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2698,96 +2485,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D15" s="7">
-        <v>16217</v>
+        <v>35598</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="I15" s="7">
-        <v>55661</v>
+        <v>89575</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="N15" s="7">
-        <v>71879</v>
+        <v>125174</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="D16" s="7">
-        <v>35598</v>
+        <v>104954</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H16" s="7">
-        <v>85</v>
+        <v>279</v>
       </c>
       <c r="I16" s="7">
-        <v>89575</v>
+        <v>294341</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>116</v>
+        <v>372</v>
       </c>
       <c r="N16" s="7">
-        <v>125174</v>
+        <v>399295</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>111</v>
@@ -2799,7 +2586,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -2808,40 +2595,40 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>2264</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>2264</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>116</v>
@@ -2853,217 +2640,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="D18" s="7">
-        <v>35598</v>
+        <v>104954</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>85</v>
+        <v>281</v>
       </c>
       <c r="I18" s="7">
-        <v>89575</v>
+        <v>296605</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>116</v>
+        <v>374</v>
       </c>
       <c r="N18" s="7">
-        <v>125174</v>
+        <v>401559</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>93</v>
-      </c>
-      <c r="D19" s="7">
-        <v>104954</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="7">
-        <v>279</v>
-      </c>
-      <c r="I19" s="7">
-        <v>294341</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M19" s="7">
-        <v>372</v>
-      </c>
-      <c r="N19" s="7">
-        <v>399295</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7">
-        <v>0</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2264</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2264</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>93</v>
-      </c>
-      <c r="D21" s="7">
-        <v>104954</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="7">
-        <v>281</v>
-      </c>
-      <c r="I21" s="7">
-        <v>296605</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M21" s="7">
-        <v>374</v>
-      </c>
-      <c r="N21" s="7">
-        <v>401559</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>84</v>
+      <c r="A19" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3076,8 +2707,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71AC37A9-DB60-4A99-BD50-11445CA31BB5}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E85540EE-D419-430C-9614-7F80D108981D}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3093,7 +2724,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3194,55 +2825,55 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D4" s="7">
-        <v>2736</v>
+        <v>11370</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H4" s="7">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="I4" s="7">
-        <v>13340</v>
+        <v>56821</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M4" s="7">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="N4" s="7">
-        <v>16076</v>
+        <v>68190</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -3251,13 +2882,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3266,13 +2897,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3281,13 +2912,13 @@
         <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3296,108 +2927,108 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D6" s="7">
-        <v>2736</v>
+        <v>11370</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="I6" s="7">
-        <v>13340</v>
+        <v>56821</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="N6" s="7">
-        <v>16076</v>
+        <v>68190</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D7" s="7">
-        <v>8634</v>
+        <v>17593</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H7" s="7">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="I7" s="7">
-        <v>43481</v>
+        <v>74906</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M7" s="7">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="N7" s="7">
-        <v>52115</v>
+        <v>92498</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -3406,13 +3037,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>58</v>
+        <v>126</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3421,13 +3052,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3436,13 +3067,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>140</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3451,49 +3082,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D9" s="7">
-        <v>8634</v>
+        <v>17593</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="I9" s="7">
-        <v>43481</v>
+        <v>74906</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="N9" s="7">
-        <v>52115</v>
+        <v>92498</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3504,46 +3135,46 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D10" s="7">
-        <v>17593</v>
+        <v>15601</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H10" s="7">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="I10" s="7">
-        <v>74906</v>
+        <v>39512</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>129</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="N10" s="7">
-        <v>92498</v>
+        <v>55113</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -3552,7 +3183,7 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -3561,43 +3192,43 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>1909</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>19</v>
+        <v>134</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>1909</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>19</v>
+        <v>136</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3606,108 +3237,108 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D12" s="7">
-        <v>17593</v>
+        <v>15601</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="I12" s="7">
-        <v>74906</v>
+        <v>41421</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="N12" s="7">
-        <v>92498</v>
+        <v>57022</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D13" s="7">
-        <v>15601</v>
+        <v>28475</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>92</v>
+        <v>138</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H13" s="7">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="I13" s="7">
-        <v>39512</v>
+        <v>74887</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>147</v>
+        <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="M13" s="7">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="N13" s="7">
-        <v>55113</v>
+        <v>103362</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -3716,43 +3347,43 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="H14" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>1909</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>151</v>
+        <v>22</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>152</v>
+        <v>81</v>
       </c>
       <c r="M14" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>1909</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>153</v>
+        <v>22</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3761,99 +3392,99 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D15" s="7">
-        <v>15601</v>
+        <v>28475</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="I15" s="7">
-        <v>41421</v>
+        <v>74887</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="N15" s="7">
-        <v>57022</v>
+        <v>103362</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="D16" s="7">
-        <v>28475</v>
+        <v>73039</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>155</v>
+        <v>65</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H16" s="7">
-        <v>66</v>
+        <v>222</v>
       </c>
       <c r="I16" s="7">
-        <v>74887</v>
+        <v>246125</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>142</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>95</v>
+        <v>294</v>
       </c>
       <c r="N16" s="7">
-        <v>103362</v>
+        <v>319164</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>11</v>
+        <v>144</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>157</v>
+        <v>33</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -3862,7 +3493,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -3871,43 +3502,43 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>158</v>
+        <v>72</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>1909</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>1909</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>19</v>
+        <v>147</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>160</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3916,217 +3547,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="D18" s="7">
-        <v>28475</v>
+        <v>73039</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>66</v>
+        <v>224</v>
       </c>
       <c r="I18" s="7">
-        <v>74887</v>
+        <v>248034</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>95</v>
+        <v>296</v>
       </c>
       <c r="N18" s="7">
-        <v>103362</v>
+        <v>321073</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>72</v>
-      </c>
-      <c r="D19" s="7">
-        <v>73039</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="7">
-        <v>222</v>
-      </c>
-      <c r="I19" s="7">
-        <v>246125</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M19" s="7">
-        <v>294</v>
-      </c>
-      <c r="N19" s="7">
-        <v>319164</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7">
-        <v>0</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1909</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1909</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>72</v>
-      </c>
-      <c r="D21" s="7">
-        <v>73039</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="7">
-        <v>224</v>
-      </c>
-      <c r="I21" s="7">
-        <v>248034</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M21" s="7">
-        <v>296</v>
-      </c>
-      <c r="N21" s="7">
-        <v>321073</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>84</v>
+      <c r="A19" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
